--- a/medicine/Mort/Liste_des_membres_d'Euskadi_ta_Askatasuna_morts/Liste_des_membres_d'Euskadi_ta_Askatasuna_morts.xlsx
+++ b/medicine/Mort/Liste_des_membres_d'Euskadi_ta_Askatasuna_morts/Liste_des_membres_d'Euskadi_ta_Askatasuna_morts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_membres_d%27Euskadi_ta_Askatasuna_morts</t>
+          <t>Liste_des_membres_d'Euskadi_ta_Askatasuna_morts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ci-dessous le tableau des personnes appartenant à l'organisation indépendantiste Euskadi ta Askatasuna (ETA), mortes depuis 1968 jusqu'à nos jours. Ces membres sont morts par leurs propres bombes alors qu'ils préparaient des attentats, abattus par la police nationale, les garde civile, Ertzaintza ou se sont suicidés, bien que certains de ces supposés suicides aient pu être des homicides. Il y a eu aussi plusieurs membres d'ETA assassinés par les Groupes antiterroristes de libération ou des groupes semblables comme le Batallón Vasco Español.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_membres_d%27Euskadi_ta_Askatasuna_morts</t>
+          <t>Liste_des_membres_d'Euskadi_ta_Askatasuna_morts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_membres_d%27Euskadi_ta_Askatasuna_morts</t>
+          <t>Liste_des_membres_d'Euskadi_ta_Askatasuna_morts</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -545,7 +561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_membres_d%27Euskadi_ta_Askatasuna_morts</t>
+          <t>Liste_des_membres_d'Euskadi_ta_Askatasuna_morts</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -564,6 +580,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
